--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.1441027568695</v>
+        <v>16.76012233333333</v>
       </c>
       <c r="H2">
-        <v>15.1441027568695</v>
+        <v>50.280367</v>
       </c>
       <c r="I2">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="J2">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.18898490189816</v>
+        <v>0.1085253333333333</v>
       </c>
       <c r="N2">
-        <v>2.18898490189816</v>
+        <v>0.325576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="Q2">
-        <v>33.15021228758164</v>
+        <v>1.818897862932444</v>
       </c>
       <c r="R2">
-        <v>33.15021228758164</v>
+        <v>16.370080766392</v>
       </c>
       <c r="S2">
-        <v>0.9351014396262296</v>
+        <v>0.03708058329506282</v>
       </c>
       <c r="T2">
-        <v>0.9351014396262296</v>
+        <v>0.03708058329506282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>16.76012233333333</v>
+      </c>
+      <c r="H3">
+        <v>50.280367</v>
+      </c>
+      <c r="I3">
+        <v>0.9020309505585877</v>
+      </c>
+      <c r="J3">
+        <v>0.9020309505585877</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N3">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P3">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q3">
+        <v>37.12295586978043</v>
+      </c>
+      <c r="R3">
+        <v>334.1066028280239</v>
+      </c>
+      <c r="S3">
+        <v>0.7567994252679272</v>
+      </c>
+      <c r="T3">
+        <v>0.7567994252679273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>16.76012233333333</v>
+      </c>
+      <c r="H4">
+        <v>50.280367</v>
+      </c>
+      <c r="I4">
+        <v>0.9020309505585877</v>
+      </c>
+      <c r="J4">
+        <v>0.9020309505585877</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.31653</v>
+      </c>
+      <c r="N4">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q4">
+        <v>5.305081522169999</v>
+      </c>
+      <c r="R4">
+        <v>47.74573369952999</v>
+      </c>
+      <c r="S4">
+        <v>0.1081509419955977</v>
+      </c>
+      <c r="T4">
+        <v>0.1081509419955977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.287584</v>
+      </c>
+      <c r="H5">
+        <v>0.862752</v>
+      </c>
+      <c r="I5">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="J5">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.325576</v>
+      </c>
+      <c r="O5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q5">
+        <v>0.03121014946133333</v>
+      </c>
+      <c r="R5">
+        <v>0.280891345152</v>
+      </c>
+      <c r="S5">
+        <v>0.0006362592261703667</v>
+      </c>
+      <c r="T5">
+        <v>0.0006362592261703667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.287584</v>
+      </c>
+      <c r="H6">
+        <v>0.862752</v>
+      </c>
+      <c r="I6">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="J6">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P6">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q6">
+        <v>0.6369862897493332</v>
+      </c>
+      <c r="R6">
+        <v>5.732876607743999</v>
+      </c>
+      <c r="S6">
+        <v>0.01298578862299782</v>
+      </c>
+      <c r="T6">
+        <v>0.01298578862299782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.287584</v>
+      </c>
+      <c r="H7">
+        <v>0.862752</v>
+      </c>
+      <c r="I7">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="J7">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.31653</v>
+      </c>
+      <c r="N7">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q7">
+        <v>0.09102896351999999</v>
+      </c>
+      <c r="R7">
+        <v>0.8192606716799999</v>
+      </c>
+      <c r="S7">
+        <v>0.00185574304794923</v>
+      </c>
+      <c r="T7">
+        <v>0.00185574304794923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.299319</v>
+      </c>
+      <c r="I8">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J8">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.325576</v>
+      </c>
+      <c r="O8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q8">
+        <v>0.1555283425271111</v>
+      </c>
+      <c r="R8">
+        <v>1.399755082744</v>
+      </c>
+      <c r="S8">
+        <v>0.003170646234375063</v>
+      </c>
+      <c r="T8">
+        <v>0.003170646234375063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.299319</v>
+      </c>
+      <c r="I9">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J9">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P9">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q9">
+        <v>3.17426938246311</v>
+      </c>
+      <c r="R9">
+        <v>28.56842444216799</v>
+      </c>
+      <c r="S9">
+        <v>0.06471158311639769</v>
+      </c>
+      <c r="T9">
+        <v>0.0647115831163977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.299319</v>
+      </c>
+      <c r="I10">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J10">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.31653</v>
+      </c>
+      <c r="N10">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q10">
+        <v>0.4536211476899999</v>
+      </c>
+      <c r="R10">
+        <v>4.082590329209999</v>
+      </c>
+      <c r="S10">
+        <v>0.009247653259761826</v>
+      </c>
+      <c r="T10">
+        <v>0.009247653259761826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.05104155060025</v>
-      </c>
-      <c r="H3">
-        <v>1.05104155060025</v>
-      </c>
-      <c r="I3">
-        <v>0.06489856037377043</v>
-      </c>
-      <c r="J3">
-        <v>0.06489856037377043</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="N3">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>2.300714085531578</v>
-      </c>
-      <c r="R3">
-        <v>2.300714085531578</v>
-      </c>
-      <c r="S3">
-        <v>0.06489856037377043</v>
-      </c>
-      <c r="T3">
-        <v>0.06489856037377043</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H11">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J11">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.325576</v>
+      </c>
+      <c r="O11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q11">
+        <v>0.01081093195555555</v>
+      </c>
+      <c r="R11">
+        <v>0.09729838759999998</v>
+      </c>
+      <c r="S11">
+        <v>0.000220394817677634</v>
+      </c>
+      <c r="T11">
+        <v>0.000220394817677634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H12">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J12">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P12">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q12">
+        <v>0.2206466663555555</v>
+      </c>
+      <c r="R12">
+        <v>1.985819997199999</v>
+      </c>
+      <c r="S12">
+        <v>0.004498167410777252</v>
+      </c>
+      <c r="T12">
+        <v>0.004498167410777253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H13">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J13">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.31653</v>
+      </c>
+      <c r="N13">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q13">
+        <v>0.03153166349999999</v>
+      </c>
+      <c r="R13">
+        <v>0.2837849714999999</v>
+      </c>
+      <c r="S13">
+        <v>0.0006428137053053801</v>
+      </c>
+      <c r="T13">
+        <v>0.0006428137053053801</v>
       </c>
     </row>
   </sheetData>
